--- a/server/template/article_template.xlsx
+++ b/server/template/article_template.xlsx
@@ -4,58 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Portal Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>Author Name</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Publish Time</t>
-  </si>
-  <si>
-    <t>Read Num</t>
-  </si>
-  <si>
-    <t>Comment Num</t>
-  </si>
-  <si>
-    <t>Like Num</t>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -986,49 +952,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +988,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1064,7 +1005,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
